--- a/systems.xlsx
+++ b/systems.xlsx
@@ -13,7 +13,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -186,10 +186,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="I37" activeCellId="0" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -202,7 +202,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.48"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -225,7 +225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -249,7 +249,7 @@
         <v>2764.8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -273,7 +273,7 @@
         <v>2150.4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -297,7 +297,7 @@
         <v>3046.4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -321,7 +321,7 @@
         <v>4608</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -345,13 +345,350 @@
         <v>4608</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">E19*D19</f>
+        <v>40</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">H19*I19</f>
+        <v>40</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">E20*D20</f>
+        <v>80</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">H20*I20</f>
+        <v>80</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">E21*D21</f>
+        <v>160</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">H21*I21</f>
+        <v>160</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">E22*D22</f>
+        <v>320</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">H22*I22</f>
+        <v>320</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">E23*D23</f>
+        <v>640</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">H23*I23</f>
+        <v>640</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">E26*D26</f>
+        <v>44</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">H26*I26</f>
+        <v>44</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">E27*D27</f>
+        <v>88</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">H27*I27</f>
+        <v>88</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">E28*D28</f>
+        <v>176</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">H28*I28</f>
+        <v>176</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">E29*D29</f>
+        <v>352</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">H29*I29</f>
+        <v>352</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">E30*D30</f>
+        <v>704</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">H30*I30</f>
+        <v>704</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">E32*D32</f>
+        <v>112</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">H32*I32</f>
+        <v>112</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">E33*D33</f>
+        <v>224</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">H33*I33</f>
+        <v>224</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">F32/8</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">E34*D34</f>
+        <v>448</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">H34*I34</f>
+        <v>448</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <f aca="false">E35*D35</f>
+        <v>896</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">H35*I35</f>
+        <v>896</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <f aca="false">E36*D36</f>
+        <v>1792</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <f aca="false">H36*I36</f>
+        <v>1792</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>